--- a/TP4/calcu de cosas.xlsx
+++ b/TP4/calcu de cosas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>P(bi/ai)</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t xml:space="preserve">sample 0 </t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Paridades</t>
+  </si>
+  <si>
+    <t>Falso Error</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +169,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -588,11 +604,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,6 +902,45 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,44 +956,54 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,6 +1034,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="5353050"/>
+          <a:ext cx="12700" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector recto 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="806450" y="5607050"/>
+          <a:ext cx="3028950" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806450" y="5981700"/>
+          <a:ext cx="3041650" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,9 +1487,9 @@
       <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="11" t="e">
         <f>(B2*A10)/A13</f>
-        <v>0.88888888888888895</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="11">
         <f>(C2*A10)/B13</f>
@@ -1163,18 +1502,18 @@
         <v>15</v>
       </c>
       <c r="B3" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="11" t="e">
         <f>(B3*B10)/A13</f>
-        <v>0.11111111111111112</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="11">
         <f>(C3*B10)/B13</f>
@@ -1212,9 +1551,9 @@
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="18" t="e">
         <f>F2*A13</f>
-        <v>0.8</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C6" s="18">
         <f>G2*B13</f>
@@ -1230,13 +1569,13 @@
       <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="19" t="e">
         <f>F3*A13</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C7" s="20">
         <f>G3*B13</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1272,10 +1611,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B10" s="22">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1313,11 +1652,11 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="24">
         <f>A10*B2+B10*B3</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="B13" s="24">
         <f>A10*C2+B10*C3</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1353,13 +1692,13 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
+      <c r="A16" s="26" t="e">
         <f>A10*LOG(1/A10,2) + B10*LOG(1/B10,2)</f>
-        <v>0.72192809488736231</v>
-      </c>
-      <c r="B16" s="26">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B16" s="26" t="e">
         <f>A13*LOG(1/A13,2) + B13*LOG(1/B13,2)</f>
-        <v>0.46899559358928133</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1401,9 +1740,9 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="A19" s="28" t="e">
         <f>F2*LOG(1/F2,2)+F3*LOG(1/F3,2)</f>
-        <v>0.50325833477564574</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="B19" s="29" t="e">
         <f>G2*LOG(1/G2,2)+G3*LOG(1/G3,2)</f>
@@ -1415,9 +1754,9 @@
         <f>B2*LOG(1/B2,2) + C2*LOG(1/C2,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="33" t="e">
         <f>B3*LOG(1/B3,2)+C3*LOG(1/C3,2)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="8"/>
@@ -1501,9 +1840,73 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="90"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="83"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="79"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="83"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="79"/>
+      <c r="B33" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="83"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="87"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="84"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B29:E29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1560,151 +1963,151 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="69"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="69"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="56">
         <v>0.125</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="56">
         <v>0.125</v>
       </c>
-      <c r="E8" s="70"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="69"/>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="57">
         <v>0.24750000000000003</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="58">
         <v>0.50250000000000006</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="64"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="69"/>
-      <c r="B11" s="64" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="70"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="60">
         <v>0.33557046979865773</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="60">
         <v>0.19920318725099601</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="69"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="60">
         <v>0.66442953020134232</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="60">
         <v>0.80079681274900405</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="69"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="69"/>
-      <c r="B16" s="67">
+      <c r="A16" s="63"/>
+      <c r="B16" s="62">
         <v>0.3725</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="62">
         <v>0.62750000000000006</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1735,29 +2138,29 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:11" ht="29.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="56"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="58"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
